--- a/src/test/resources/HomepageLeftPanelNavigationTest.xlsx
+++ b/src/test/resources/HomepageLeftPanelNavigationTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipsePakage\eclipse-workspace\OrangeHRMTest\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FF7FFF-3948-44E3-B4EB-09D88ECCA956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD18E30-F280-4A00-8FE1-7F7BB4D339C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4752" yWindow="2832" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
